--- a/sample_data/costs.xlsx
+++ b/sample_data/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Numer dokumentu</t>
   </si>
@@ -31,34 +31,13 @@
     <t>ID OPK</t>
   </si>
   <si>
-    <t>FV/001</t>
-  </si>
-  <si>
-    <t>FV/002</t>
-  </si>
-  <si>
-    <t>FV/003</t>
-  </si>
-  <si>
-    <t>FV/004</t>
-  </si>
-  <si>
-    <t>Materiały MO</t>
-  </si>
-  <si>
-    <t>Energia MO</t>
-  </si>
-  <si>
-    <t>Lakier LAK</t>
-  </si>
-  <si>
-    <t>Korekta MO</t>
+    <t>FV/1</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>73</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -420,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,67 +427,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45843</v>
+        <v>45839</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45850</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>40000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45857</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>50000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45863</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>-5000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/costs.xlsx
+++ b/sample_data/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Numer dokumentu</t>
   </si>
@@ -31,13 +31,34 @@
     <t>ID OPK</t>
   </si>
   <si>
-    <t>FV/1</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>FV/001</t>
+  </si>
+  <si>
+    <t>FV/002</t>
+  </si>
+  <si>
+    <t>FV/003</t>
+  </si>
+  <si>
+    <t>FV/004</t>
+  </si>
+  <si>
+    <t>Materiały MO</t>
+  </si>
+  <si>
+    <t>Energia MO</t>
+  </si>
+  <si>
+    <t>Lakier LAK</t>
+  </si>
+  <si>
+    <t>Korekta MO</t>
   </si>
   <si>
     <t>73</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -399,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +448,67 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45839</v>
+        <v>45843</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>60000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>40000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45863</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>-5000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
